--- a/Test/03-测试策略.xlsx
+++ b/Test/03-测试策略.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="2" r:id="rId1"/>
     <sheet name="测试方法及工具" sheetId="4" r:id="rId2"/>
     <sheet name="功能测试" sheetId="1" r:id="rId3"/>
     <sheet name="非功能测试" sheetId="3" r:id="rId4"/>
+    <sheet name="测试计划" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="138">
   <si>
     <t>非功能测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -531,6 +532,62 @@
   </si>
   <si>
     <t>分发、内测、IOS上线预审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星note2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备&amp;系统版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交叉测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +633,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,8 +652,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -656,11 +719,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -686,14 +795,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,23 +837,32 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,6 +873,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -975,7 +1120,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1017,7 +1162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1052,7 +1197,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1263,7 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F18" sqref="F18:G21"/>
     </sheetView>
   </sheetViews>
@@ -1279,7 +1424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -1355,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1372,234 +1517,234 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="7">
+      <c r="A1" s="16">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+      <c r="A6" s="16">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+      <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+      <c r="A12" s="16">
         <v>5</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -1607,12 +1752,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -1620,35 +1765,35 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="13" t="s">
         <v>51</v>
       </c>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -1657,11 +1802,11 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -1670,27 +1815,27 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -1698,12 +1843,12 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -1711,155 +1856,155 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="18" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="9"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18" t="s">
         <v>43</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="19"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="7"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="19"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="7"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="9" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="19"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="7"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="9" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="19"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="7">
+      <c r="A34" s="16">
         <v>6</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="19"/>
+      <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="7"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="19"/>
+      <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="8" t="s">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="18" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G36" s="19"/>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="7"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="8" t="s">
         <v>52</v>
       </c>
       <c r="G37" s="6" t="s">
@@ -1867,23 +2012,23 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="7"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="8" t="s">
         <v>53</v>
       </c>
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="7"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9" t="s">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="8" t="s">
         <v>54</v>
       </c>
       <c r="G39" s="6" t="s">
@@ -1891,12 +2036,12 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="7"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="9" t="s">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="8" t="s">
         <v>56</v>
       </c>
       <c r="G40" s="6" t="s">
@@ -1904,23 +2049,23 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="7"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="8"/>
       <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="7"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9" t="s">
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="8" t="s">
         <v>52</v>
       </c>
       <c r="G42" s="6" t="s">
@@ -1928,34 +2073,34 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="7"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="8" t="s">
         <v>53</v>
       </c>
       <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="7"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="9" t="s">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="7"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="9" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="8" t="s">
         <v>54</v>
       </c>
       <c r="G45" s="6" t="s">
@@ -1963,12 +2108,12 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="7"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="9" t="s">
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="8" t="s">
         <v>56</v>
       </c>
       <c r="G46" s="6" t="s">
@@ -1976,13 +2121,13 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="7"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="20" t="s">
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F47" s="6" t="s">
@@ -1991,104 +2136,123 @@
       <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="7"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="8"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="18"/>
       <c r="F48" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="7"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="9" t="s">
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="7"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="9" t="s">
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
       <c r="G50" s="6"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="7">
+      <c r="A51" s="16">
         <v>7</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
       <c r="G51" s="6"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9" t="s">
+      <c r="A52" s="16"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
       <c r="G52" s="6"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="7">
+      <c r="A53" s="16">
         <v>8</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
       <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="7"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="9" t="s">
+      <c r="A54" s="16"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
       <c r="G54" s="6"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="15"/>
+      <c r="A57" s="11"/>
       <c r="B57" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="15"/>
+      <c r="A58" s="11"/>
       <c r="B58" s="4" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D24:D31"/>
+    <mergeCell ref="B12:B33"/>
+    <mergeCell ref="C14:C31"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="D36:D46"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C36:C48"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B34:B50"/>
     <mergeCell ref="B53:B54"/>
@@ -2100,28 +2264,9 @@
     <mergeCell ref="A12:A33"/>
     <mergeCell ref="A34:A50"/>
     <mergeCell ref="A51:A52"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="E41:E46"/>
-    <mergeCell ref="D36:D46"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C36:C48"/>
-    <mergeCell ref="D17:D23"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D24:D31"/>
-    <mergeCell ref="B12:B33"/>
-    <mergeCell ref="C14:C31"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E22:E23"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="B6:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2134,7 +2279,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B16" sqref="B9:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2147,25 +2292,25 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="18" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -2179,9 +2324,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="6" t="s">
         <v>74</v>
       </c>
@@ -2190,17 +2335,17 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="8" t="s">
         <v>79</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="6" t="s">
         <v>82</v>
       </c>
@@ -2208,37 +2353,37 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="8" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+      <c r="A9" s="16">
         <v>2</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2248,8 +2393,8 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="6" t="s">
         <v>92</v>
       </c>
@@ -2257,8 +2402,8 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="6" t="s">
         <v>89</v>
       </c>
@@ -2266,8 +2411,8 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="6" t="s">
         <v>104</v>
       </c>
@@ -2277,8 +2422,8 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="6" t="s">
         <v>90</v>
       </c>
@@ -2286,8 +2431,8 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="6" t="s">
         <v>98</v>
       </c>
@@ -2327,10 +2472,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+      <c r="A17" s="16">
         <v>5</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="16" t="s">
         <v>83</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -2340,9 +2485,9 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="18" t="s">
         <v>85</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -2351,9 +2496,9 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="6" t="s">
         <v>87</v>
       </c>
@@ -2363,17 +2508,191 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B9:B14"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="27"/>
+      <c r="B2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="24"/>
+      <c r="B7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="24"/>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="24"/>
+      <c r="B9" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="24"/>
+      <c r="B10" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="24"/>
+      <c r="B12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="24"/>
+      <c r="B13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test/03-测试策略.xlsx
+++ b/Test/03-测试策略.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="2" r:id="rId1"/>
     <sheet name="测试方法及工具" sheetId="4" r:id="rId2"/>
     <sheet name="功能测试" sheetId="1" r:id="rId3"/>
     <sheet name="非功能测试" sheetId="3" r:id="rId4"/>
-    <sheet name="测试计划" sheetId="5" r:id="rId5"/>
+    <sheet name="测试记录" sheetId="6" r:id="rId5"/>
+    <sheet name="测试计划" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="205">
   <si>
     <t>非功能测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,10 +439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>功能、界面、文件大小、版本更新、清除数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>再次安装后与初次安装一样，无历史信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,6 +585,277 @@
   </si>
   <si>
     <t>交叉测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能、安装时间、界面、 文件大小、版本更新、清除数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装后显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示安装完成，完成和打开两个选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌面图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多任务显示，只显示“白色背景+产品名称”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否应该显示退出时的界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称：Valet Safe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装卸载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录和注册界面切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入格式校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用过程中停止运行自动重启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电邮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意条款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认显示界面页签显示灰色，而注册页签显示深蓝，容易弄混；
+红色光标 怪怪的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体界面显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备：三星 4.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26日release版本安装时间太长；
+27日debug版本安装20s。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认显示登录界面（注册sign in&amp;登录sign up）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击下方登录页签软件停止运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册按钮下方提示”已有账号？登录"连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录翻译错误，写成注册了sign in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bug.pgyer.com/cloud/#/project/6644333b50750ec9906ccfd350e48e92/issue/001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bug.pgyer.com/cloud/#/project/6644333b50750ec9906ccfd350e48e92/issue/003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机接单模式改为抢单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验失败，不建议清空数据，提示即可，输入的信息仍然保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击返回无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑-光标定位直接修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存-点击信息后面的标记即保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同注册信息校验，无效给出提示即可，不要删除信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bug.pgyer.com/cloud/#/project/6644333b50750ec9906ccfd350e48e92/issue/006</t>
+  </si>
+  <si>
+    <t>https://bug.pgyer.com/cloud/#/project/6644333b50750ec9906ccfd350e48e92/issue/007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机-8、9开头，8位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次退出软件未退出账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次退出软件前退出账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bug.pgyer.com/cloud/#/project/6644333b50750ec9906ccfd350e48e92/issue/005</t>
+  </si>
+  <si>
+    <t>https://bug.pgyer.com/cloud/#/project/6644333b50750ec9906ccfd350e48e92/issue/004</t>
+  </si>
+  <si>
+    <t>VPN应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lantern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用不了了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网速比较慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未输入密码，提交，停止运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +863,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,8 +900,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -658,8 +934,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -765,11 +1053,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -825,9 +1165,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,11 +1243,41 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -852,21 +1288,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1406,14 +1831,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="G5"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="52.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1422,10 +1856,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1439,54 +1873,73 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>119</v>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1500,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1517,10 +1970,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="16">
+      <c r="A1" s="41">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="39" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -1532,8 +1985,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="8" t="s">
         <v>25</v>
       </c>
@@ -1543,8 +1996,8 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="8" t="s">
         <v>26</v>
       </c>
@@ -1554,10 +2007,10 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="16">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="39" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1569,8 +2022,8 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
@@ -1582,10 +2035,10 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="16">
+      <c r="A6" s="41">
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="39" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1599,8 +2052,8 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1610,8 +2063,8 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="13" t="s">
         <v>69</v>
       </c>
@@ -1623,42 +2076,42 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="16">
+      <c r="A9" s="41">
         <v>4</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="39" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
@@ -1668,13 +2121,13 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="16">
+      <c r="A12" s="41">
         <v>5</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="38" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -1685,25 +2138,25 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="38" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -1713,10 +2166,10 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="8" t="s">
         <v>7</v>
       </c>
@@ -1724,10 +2177,10 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="8" t="s">
         <v>39</v>
       </c>
@@ -1735,13 +2188,13 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="38" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -1752,12 +2205,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38" t="s">
         <v>36</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -1765,21 +2218,21 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
       <c r="G19" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="8" t="s">
         <v>50</v>
       </c>
@@ -1789,10 +2242,10 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="8" t="s">
         <v>35</v>
       </c>
@@ -1802,11 +2255,11 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18" t="s">
+      <c r="A22" s="41"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -1815,24 +2268,24 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18" t="s">
+      <c r="A24" s="41"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="38" t="s">
         <v>31</v>
       </c>
       <c r="F24" s="8" t="s">
@@ -1843,12 +2296,12 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -1856,21 +2309,21 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
       <c r="G26" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="8" t="s">
         <v>50</v>
       </c>
@@ -1880,10 +2333,10 @@
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="8" t="s">
         <v>40</v>
       </c>
@@ -1895,10 +2348,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="8" t="s">
         <v>35</v>
       </c>
@@ -1908,11 +2361,11 @@
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38" t="s">
         <v>43</v>
       </c>
       <c r="F30" s="6" t="s">
@@ -1921,19 +2374,19 @@
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
       <c r="F31" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="8" t="s">
         <v>71</v>
       </c>
@@ -1943,8 +2396,8 @@
       <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="8" t="s">
         <v>46</v>
       </c>
@@ -1954,13 +2407,13 @@
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="16">
+      <c r="A34" s="41">
         <v>6</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D34" s="8" t="s">
@@ -1971,9 +2424,9 @@
       <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="8" t="s">
         <v>66</v>
       </c>
@@ -1982,15 +2435,15 @@
       <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18" t="s">
+      <c r="A36" s="41"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="38" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -1999,11 +2452,11 @@
       <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
       <c r="F37" s="8" t="s">
         <v>52</v>
       </c>
@@ -2012,22 +2465,22 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
       <c r="F38" s="8" t="s">
         <v>53</v>
       </c>
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
       <c r="F39" s="8" t="s">
         <v>54</v>
       </c>
@@ -2036,11 +2489,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
       <c r="F40" s="8" t="s">
         <v>56</v>
       </c>
@@ -2049,22 +2502,22 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18" t="s">
+      <c r="A41" s="41"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
       <c r="F42" s="8" t="s">
         <v>52</v>
       </c>
@@ -2073,33 +2526,33 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
       <c r="F43" s="8" t="s">
         <v>53</v>
       </c>
       <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
       <c r="F44" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="8" t="s">
         <v>54</v>
       </c>
@@ -2108,11 +2561,11 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
       <c r="F46" s="8" t="s">
         <v>56</v>
       </c>
@@ -2121,13 +2574,13 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="19" t="s">
+      <c r="A47" s="41"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="38" t="s">
         <v>62</v>
       </c>
       <c r="F47" s="6" t="s">
@@ -2136,19 +2589,19 @@
       <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="18"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="38"/>
       <c r="F48" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="8" t="s">
         <v>71</v>
       </c>
@@ -2158,8 +2611,8 @@
       <c r="G49" s="6"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="8" t="s">
         <v>46</v>
       </c>
@@ -2169,10 +2622,10 @@
       <c r="G50" s="6"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="16">
+      <c r="A51" s="41">
         <v>7</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="38" t="s">
         <v>95</v>
       </c>
       <c r="C51" s="8" t="s">
@@ -2184,8 +2637,8 @@
       <c r="G51" s="6"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="16"/>
-      <c r="B52" s="18"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="8" t="s">
         <v>97</v>
       </c>
@@ -2195,10 +2648,10 @@
       <c r="G52" s="6"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="16">
+      <c r="A53" s="41">
         <v>8</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -2210,8 +2663,8 @@
       <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="39"/>
       <c r="C54" s="8" t="s">
         <v>7</v>
       </c>
@@ -2234,25 +2687,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D17:D23"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D24:D31"/>
-    <mergeCell ref="B12:B33"/>
-    <mergeCell ref="C14:C31"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="E41:E46"/>
-    <mergeCell ref="D36:D46"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C36:C48"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B34:B50"/>
     <mergeCell ref="B53:B54"/>
@@ -2268,6 +2702,25 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="B6:B8"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="D36:D46"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C36:C48"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D24:D31"/>
+    <mergeCell ref="B12:B33"/>
+    <mergeCell ref="C14:C31"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D17:D23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2279,7 +2732,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B9:B16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2294,23 +2747,23 @@
   <sheetData>
     <row r="1" spans="1:6" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="16">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="38" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -2324,9 +2777,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="18"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="6" t="s">
         <v>74</v>
       </c>
@@ -2335,8 +2788,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="8" t="s">
         <v>79</v>
       </c>
@@ -2344,8 +2797,8 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="6" t="s">
         <v>82</v>
       </c>
@@ -2353,8 +2806,8 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="8" t="s">
         <v>81</v>
       </c>
@@ -2362,8 +2815,8 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="8" t="s">
         <v>80</v>
       </c>
@@ -2371,8 +2824,8 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="8" t="s">
         <v>72</v>
       </c>
@@ -2380,10 +2833,10 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="16">
+      <c r="A9" s="41">
         <v>2</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2393,8 +2846,8 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="6" t="s">
         <v>92</v>
       </c>
@@ -2402,8 +2855,8 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="6" t="s">
         <v>89</v>
       </c>
@@ -2411,19 +2864,19 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="6" t="s">
         <v>90</v>
       </c>
@@ -2431,13 +2884,13 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="6" t="s">
         <v>98</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="6"/>
     </row>
@@ -2449,11 +2902,11 @@
         <v>1</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -2472,10 +2925,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="16">
+      <c r="A17" s="41">
         <v>5</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -2485,9 +2938,9 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="18" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="38" t="s">
         <v>85</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -2496,9 +2949,9 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="18"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="6" t="s">
         <v>87</v>
       </c>
@@ -2525,6 +2978,501 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:E59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="89.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:5" ht="33" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="16">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="52">
+        <v>2</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="53"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="16">
+        <v>3</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+    </row>
+    <row r="12" spans="1:5" ht="33" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="29">
+        <v>1</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="16">
+        <v>2</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="25"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="16">
+        <v>3</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="52">
+        <v>4</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="54"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="53"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="52">
+        <v>5</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="54"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="54"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="54"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="54"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="54"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="53"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="30">
+        <v>6</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="32"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="32"/>
+      <c r="B28" s="31"/>
+    </row>
+    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="32"/>
+      <c r="B29" s="31"/>
+    </row>
+    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="32"/>
+      <c r="B30" s="31"/>
+    </row>
+    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="32"/>
+      <c r="B31" s="31"/>
+    </row>
+    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="30"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+    </row>
+    <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B35" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B39" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B47" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E48" s="36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="16"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="16"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E13" r:id="rId1" location="/project/6644333b50750ec9906ccfd350e48e92/issue/001"/>
+    <hyperlink ref="E19" r:id="rId2" location="/project/6644333b50750ec9906ccfd350e48e92/issue/003"/>
+    <hyperlink ref="E16" r:id="rId3" location="/project/6644333b50750ec9906ccfd350e48e92/issue/007"/>
+    <hyperlink ref="E48" r:id="rId4" location="/project/6644333b50750ec9906ccfd350e48e92/issue/007"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2542,65 +3490,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
-        <v>132</v>
+      <c r="A1" s="58" t="s">
+        <v>131</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="59"/>
+      <c r="B2" s="7" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="C2" s="7">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="55"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="24"/>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="23" t="s">
+      <c r="E5" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>134</v>
+      <c r="F5" s="19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>129</v>
+      <c r="A6" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -2608,7 +3556,7 @@
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
@@ -2618,7 +3566,7 @@
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
@@ -2628,9 +3576,9 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -2638,9 +3586,9 @@
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -2648,8 +3596,8 @@
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
-        <v>124</v>
+      <c r="A11" s="55" t="s">
+        <v>123</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>1</v>
@@ -2660,7 +3608,7 @@
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="12" t="s">
         <v>2</v>
       </c>
@@ -2670,7 +3618,7 @@
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="12" t="s">
         <v>4</v>
       </c>
